--- a/analysis/participant_extractedmetrics/particiapnt230.xlsx
+++ b/analysis/participant_extractedmetrics/particiapnt230.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="71">
   <si>
     <t/>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>pre gem</t>
+  </si>
+  <si>
+    <t>post</t>
   </si>
   <si>
     <t>arg</t>
@@ -221,12 +224,15 @@
   <si>
     <t>var9</t>
   </si>
+  <si>
+    <t xml:space="preserve">post </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -237,6 +243,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,12 +264,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,6 +583,22 @@
       <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -641,6 +677,22 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -721,6 +773,22 @@
       <c r="Z3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -801,6 +869,22 @@
       <c r="Z4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -881,6 +965,22 @@
       <c r="Z5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -961,6 +1061,22 @@
       <c r="Z6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -1041,6 +1157,22 @@
       <c r="Z7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -1121,6 +1253,22 @@
       <c r="Z8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -1206,6 +1354,22 @@
       <c r="Z12" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -1284,6 +1448,22 @@
         <v>0</v>
       </c>
       <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -1364,6 +1544,22 @@
       <c r="Z14" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -1444,6 +1640,22 @@
       <c r="Z15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -1524,6 +1736,22 @@
       <c r="Z16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -1604,6 +1832,22 @@
       <c r="Z17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -1684,6 +1928,22 @@
       <c r="Z18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -1764,8 +2024,774 @@
       <c r="Z19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="4">
+        <v>235.0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>219.0</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4">
+        <v>433.75</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9217.84</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3261.78</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1251.31</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1000.65</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1626.71</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="4">
+        <v>500.47</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="4">
+        <v>54697.74</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1067.78</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="T26" s="4">
+        <v>583.92</v>
+      </c>
+      <c r="U26" s="4">
+        <v>61568.68</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4.69</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="4">
+        <v>27.86</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="U27" s="4">
+        <v>31.36</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="D28" s="4">
+        <v>288.06</v>
+      </c>
+      <c r="E28" s="4">
+        <v>203.86</v>
+      </c>
+      <c r="F28" s="4">
+        <v>417.1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>200.13</v>
+      </c>
+      <c r="H28" s="4">
+        <v>271.12</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="4">
+        <v>166.82</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="4">
+        <v>232.76</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>533.89</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="T28" s="4">
+        <v>583.92</v>
+      </c>
+      <c r="U28" s="4">
+        <v>281.14</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="D29" s="4">
+        <v>133.47</v>
+      </c>
+      <c r="E29" s="4">
+        <v>183.34</v>
+      </c>
+      <c r="F29" s="4">
+        <v>250.24</v>
+      </c>
+      <c r="G29" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="H29" s="4">
+        <v>300.33</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="4">
+        <v>133.43</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="4">
+        <v>33.32</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>934.31</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="T29" s="4">
+        <v>583.92</v>
+      </c>
+      <c r="U29" s="4">
+        <v>216.88</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1785,31 +2811,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
@@ -1821,10 +2847,10 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>22</v>
@@ -1833,7 +2859,7 @@
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>0</v>
@@ -2260,31 +3286,31 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>16</v>
@@ -2296,10 +3322,10 @@
         <v>18</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>22</v>
@@ -2308,7 +3334,7 @@
         <v>23</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>0</v>
@@ -2725,7 +3751,618 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>153.0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4">
+        <v>166.78</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5014.09</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="4">
+        <v>425.38</v>
+      </c>
+      <c r="F28" s="4">
+        <v>37964.02</v>
+      </c>
+      <c r="G28" s="4">
+        <v>875.85</v>
+      </c>
+      <c r="H28" s="4">
+        <v>400.43</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1059.27</v>
+      </c>
+      <c r="L28" s="4">
+        <v>817.43</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="4">
+        <v>8941.47</v>
+      </c>
+      <c r="O28" s="4">
+        <v>400.43</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="F29" s="4">
+        <v>42.37</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="4">
+        <v>9.98</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4">
+        <v>166.78</v>
+      </c>
+      <c r="C30" s="4">
+        <v>238.77</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4">
+        <v>212.69</v>
+      </c>
+      <c r="F30" s="4">
+        <v>248.13</v>
+      </c>
+      <c r="G30" s="4">
+        <v>218.96</v>
+      </c>
+      <c r="H30" s="4">
+        <v>400.43</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="4">
+        <v>264.82</v>
+      </c>
+      <c r="L30" s="4">
+        <v>408.72</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="4">
+        <v>248.37</v>
+      </c>
+      <c r="O30" s="4">
+        <v>400.43</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4">
+        <v>166.78</v>
+      </c>
+      <c r="C31" s="4">
+        <v>316.98</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="4">
+        <v>258.6</v>
+      </c>
+      <c r="F31" s="4">
+        <v>133.51</v>
+      </c>
+      <c r="G31" s="4">
+        <v>316.99</v>
+      </c>
+      <c r="H31" s="4">
+        <v>400.43</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="4">
+        <v>417.01</v>
+      </c>
+      <c r="L31" s="4">
+        <v>417.01</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="4">
+        <v>191.64</v>
+      </c>
+      <c r="O31" s="4">
+        <v>400.43</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2745,28 +4382,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -2775,46 +4412,46 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>16</v>
@@ -2829,22 +4466,22 @@
         <v>21</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>22</v>
@@ -2853,19 +4490,19 @@
         <v>23</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>0</v>
@@ -3796,28 +5433,28 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>5</v>
@@ -3826,46 +5463,46 @@
         <v>6</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>16</v>
@@ -3880,22 +5517,22 @@
         <v>21</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AJ13" s="1" t="s">
         <v>22</v>
@@ -3904,19 +5541,19 @@
         <v>23</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AQ13" s="1" t="s">
         <v>0</v>
@@ -4837,7 +6474,954 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="4">
+        <v>163.0</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>111.0</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4">
+        <v>900.97</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="4">
+        <v>283.63</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5965.69</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2595.08</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1384.96</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="4">
+        <v>334.02</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="4">
+        <v>40244.69</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1760.57</v>
+      </c>
+      <c r="T27" s="4">
+        <v>1551.82</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="4">
+        <v>133.37</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>166.86</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>2352.61</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>27703.93</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>483.99</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>183.83</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4.66</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2.03</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="4">
+        <v>31.44</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>21.65</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4">
+        <v>900.97</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="4">
+        <v>283.63</v>
+      </c>
+      <c r="H29" s="4">
+        <v>298.28</v>
+      </c>
+      <c r="I29" s="4">
+        <v>199.62</v>
+      </c>
+      <c r="J29" s="4">
+        <v>692.48</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="4">
+        <v>167.01</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="4">
+        <v>246.9</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="4">
+        <v>176.06</v>
+      </c>
+      <c r="T29" s="4">
+        <v>517.27</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" s="4">
+        <v>133.37</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>166.86</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>470.52</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>249.58</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>483.99</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>183.83</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="4">
+        <v>900.97</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="4">
+        <v>283.63</v>
+      </c>
+      <c r="H30" s="4">
+        <v>250.31</v>
+      </c>
+      <c r="I30" s="4">
+        <v>250.31</v>
+      </c>
+      <c r="J30" s="4">
+        <v>483.99</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="4">
+        <v>183.83</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="4">
+        <v>12.23</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" s="4">
+        <v>250.31</v>
+      </c>
+      <c r="T30" s="4">
+        <v>483.99</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30" s="4">
+        <v>133.37</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>166.86</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>300.27</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>116.76</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>483.99</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>183.83</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>